--- a/Hours/service/files/service.xlsx
+++ b/Hours/service/files/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Desktop\pbischoff3.github.io\Hours\service\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50402DB-3EB2-41B9-829A-F48D74CFF540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3BB69E-87A0-43CA-8BB4-8455DC553F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D2F0FB2-7D8F-4678-8B0A-0320E5E0FB7E}"/>
+    <workbookView xWindow="29400" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{3D2F0FB2-7D8F-4678-8B0A-0320E5E0FB7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>description</t>
   </si>
@@ -48,13 +48,22 @@
     <t>hours</t>
   </si>
   <si>
-    <t>Executive Secretary</t>
-  </si>
-  <si>
-    <t>High Council</t>
-  </si>
-  <si>
-    <t>IHC ER</t>
+    <t>Honor's Program</t>
+  </si>
+  <si>
+    <t>Food Pantry</t>
+  </si>
+  <si>
+    <t>Primary Children's Booth</t>
+  </si>
+  <si>
+    <t>IHC Emergency Room</t>
+  </si>
+  <si>
+    <t>Cards 4 Kidz</t>
+  </si>
+  <si>
+    <t>Church Volunteer Service</t>
   </si>
 </sst>
 </file>
@@ -406,13 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEBF147-AA17-4591-906D-404A9E5FA2BF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -434,44 +445,63 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <f>B3*C3*2</f>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
+      <c r="D7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Hours/service/files/service.xlsx
+++ b/Hours/service/files/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Desktop\pbischoff3.github.io\Hours\service\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3BB69E-87A0-43CA-8BB4-8455DC553F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104F86B-C5F3-4763-B7CA-658F29A78518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{3D2F0FB2-7D8F-4678-8B0A-0320E5E0FB7E}"/>
+    <workbookView xWindow="2025" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{3D2F0FB2-7D8F-4678-8B0A-0320E5E0FB7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Hours/service/files/service.xlsx
+++ b/Hours/service/files/service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Desktop\pbischoff3.github.io\Hours\service\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UVUStudentLoaner\Desktop\REPOs\personal\pbischoff3.github.io\Hours\service\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104F86B-C5F3-4763-B7CA-658F29A78518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D77CDC7-E9F4-4EB2-9B4D-C0FB74F938B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{3D2F0FB2-7D8F-4678-8B0A-0320E5E0FB7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D2F0FB2-7D8F-4678-8B0A-0320E5E0FB7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,18 +418,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -454,10 +454,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -472,7 +472,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -480,7 +480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
